--- a/TGLAutomation/src/test/resources/TestData/TestData.xlsx
+++ b/TGLAutomation/src/test/resources/TestData/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Local_Rep\TGL-Automation\tgl-selenium-automation\TGLAutomation\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Local_Rep\TGL-Automation\tgl-selenium-automation\tgl-selenium-automation\TGLAutomation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>S.N.</t>
   </si>
@@ -44,9 +44,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>CMM_001</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>New York</t>
   </si>
   <si>
-    <t>1/1/2018</t>
-  </si>
-  <si>
     <t>NewAccount_SchoolStartDate_ED</t>
   </si>
   <si>
@@ -131,12 +125,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>input1</t>
-  </si>
-  <si>
-    <t>input2</t>
-  </si>
-  <si>
     <t>input3</t>
   </si>
   <si>
@@ -167,78 +155,12 @@
     <t>CMM_004</t>
   </si>
   <si>
-    <t>IMPS</t>
-  </si>
-  <si>
-    <t>smith</t>
-  </si>
-  <si>
-    <t>CMM_005</t>
-  </si>
-  <si>
-    <t>Program Tracker</t>
-  </si>
-  <si>
-    <t>CMM_006</t>
-  </si>
-  <si>
-    <t>Assignment</t>
-  </si>
-  <si>
-    <t>cpass</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Oluwatobi</t>
-  </si>
-  <si>
-    <t>CMM_007</t>
-  </si>
-  <si>
-    <t>RetentionManager</t>
-  </si>
-  <si>
-    <t>Cchew</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>CMM_008</t>
-  </si>
-  <si>
-    <t>PlacementTracker</t>
-  </si>
-  <si>
     <t>Online</t>
   </si>
   <si>
     <t>briana.berry96@yahoo.com</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>CMM_009</t>
-  </si>
-  <si>
-    <t>cbliss</t>
-  </si>
-  <si>
-    <t>cchew</t>
-  </si>
-  <si>
-    <t>AppPartOne_SubmitApplicant</t>
-  </si>
-  <si>
     <t>Regression</t>
   </si>
   <si>
@@ -266,30 +188,9 @@
     <t>input 10 value</t>
   </si>
   <si>
-    <t>CMM_010</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>input4 value</t>
   </si>
   <si>
-    <t>45457</t>
-  </si>
-  <si>
-    <t>input3 value</t>
-  </si>
-  <si>
-    <t>4015455558</t>
-  </si>
-  <si>
-    <t>Centralized</t>
-  </si>
-  <si>
-    <t>UserFN</t>
-  </si>
-  <si>
     <t>input5</t>
   </si>
   <si>
@@ -308,14 +209,26 @@
     <t>input10</t>
   </si>
   <si>
-    <t>regressiontest944745@test.com</t>
+    <t>TGLNS</t>
+  </si>
+  <si>
+    <t>PIDConfirmed</t>
+  </si>
+  <si>
+    <t>PIDAssignment</t>
+  </si>
+  <si>
+    <t>PIDDeferAccept</t>
+  </si>
+  <si>
+    <t>4300104</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,12 +250,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -373,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -409,25 +316,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -440,19 +334,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -775,10 +663,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB11"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,82 +761,82 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="AB1" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -956,81 +844,81 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>65</v>
+        <v>43</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>82</v>
+        <v>35</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>76</v>
+        <v>49</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>78</v>
+        <v>9</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="W2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AB2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
@@ -1038,16 +926,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="8"/>
@@ -1062,23 +950,23 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="12"/>
+      <c r="S3" s="11"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1093,29 +981,33 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="12"/>
+      <c r="S4" s="11"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -1126,241 +1018,14 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="12"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="14"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="12"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-    </row>
-    <row r="11" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
+      <c r="S5" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="H2" r:id="rId2"/>
-    <hyperlink ref="G11" r:id="rId3"/>
-    <hyperlink ref="D11" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/TGLAutomation/src/test/resources/TestData/TestData.xlsx
+++ b/TGLAutomation/src/test/resources/TestData/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>S.N.</t>
   </si>
@@ -125,9 +125,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>input3</t>
-  </si>
-  <si>
     <t>input4</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>Online</t>
   </si>
   <si>
-    <t>briana.berry96@yahoo.com</t>
-  </si>
-  <si>
     <t>Regression</t>
   </si>
   <si>
@@ -222,6 +216,21 @@
   </si>
   <si>
     <t>4300104</t>
+  </si>
+  <si>
+    <t>4313146</t>
+  </si>
+  <si>
+    <t>PIDIntegation</t>
+  </si>
+  <si>
+    <t>randycoplin2011@gmail.com</t>
+  </si>
+  <si>
+    <t>Login_UserNameOnline</t>
+  </si>
+  <si>
+    <t>Login_PasswordOnline</t>
   </si>
 </sst>
 </file>
@@ -663,10 +672,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB5"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,85 +684,87 @@
     <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="33.28515625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="31.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="40.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="30.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="37.42578125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="33.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="38.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="34" style="3" customWidth="1"/>
-    <col min="15" max="15" width="34.85546875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="35" style="3" customWidth="1"/>
-    <col min="17" max="17" width="31.5703125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="35.42578125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="25.42578125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="34.5703125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="34.42578125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="41.5703125" style="3" customWidth="1"/>
-    <col min="23" max="23" width="40.140625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="41.7109375" style="3" customWidth="1"/>
-    <col min="25" max="25" width="40.42578125" style="3" customWidth="1"/>
-    <col min="26" max="26" width="43.7109375" style="3" customWidth="1"/>
-    <col min="27" max="27" width="33.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="43.42578125" style="3" customWidth="1"/>
-    <col min="29" max="29" width="35.7109375" style="3" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="3" customWidth="1"/>
-    <col min="31" max="32" width="34.28515625" style="3" customWidth="1"/>
-    <col min="33" max="33" width="41.28515625" style="3" customWidth="1"/>
-    <col min="34" max="34" width="21.5703125" style="3" customWidth="1"/>
-    <col min="35" max="35" width="28.7109375" style="3" customWidth="1"/>
-    <col min="36" max="36" width="25.85546875" style="3" customWidth="1"/>
-    <col min="37" max="37" width="28.28515625" style="3" customWidth="1"/>
-    <col min="38" max="38" width="27.28515625" style="3" customWidth="1"/>
-    <col min="39" max="39" width="23.7109375" style="3" customWidth="1"/>
-    <col min="40" max="40" width="29.85546875" style="3" customWidth="1"/>
-    <col min="41" max="41" width="25.5703125" style="3" customWidth="1"/>
-    <col min="42" max="43" width="29.140625" style="3" customWidth="1"/>
-    <col min="44" max="44" width="30" style="3" customWidth="1"/>
-    <col min="45" max="45" width="23.7109375" style="3" customWidth="1"/>
-    <col min="46" max="47" width="26.140625" style="3" customWidth="1"/>
-    <col min="48" max="48" width="26.5703125" style="3" customWidth="1"/>
-    <col min="49" max="49" width="16.85546875" style="3" customWidth="1"/>
-    <col min="50" max="50" width="29.85546875" style="3" customWidth="1"/>
-    <col min="51" max="51" width="37.28515625" style="3" customWidth="1"/>
-    <col min="52" max="59" width="9.140625" style="3"/>
-    <col min="60" max="60" width="36.85546875" style="3" customWidth="1"/>
-    <col min="61" max="61" width="9.140625" style="3"/>
-    <col min="62" max="62" width="25" style="3" customWidth="1"/>
-    <col min="63" max="63" width="35.7109375" style="3" customWidth="1"/>
-    <col min="64" max="64" width="39.28515625" style="3" customWidth="1"/>
-    <col min="65" max="65" width="31.42578125" style="3" customWidth="1"/>
-    <col min="66" max="67" width="9.140625" style="3"/>
-    <col min="68" max="68" width="29.42578125" style="3" customWidth="1"/>
-    <col min="69" max="69" width="36.85546875" style="3" customWidth="1"/>
-    <col min="70" max="70" width="26.5703125" style="3" customWidth="1"/>
-    <col min="71" max="71" width="33.28515625" style="3" customWidth="1"/>
-    <col min="72" max="72" width="37.7109375" style="3" customWidth="1"/>
-    <col min="73" max="73" width="35.140625" style="3" customWidth="1"/>
-    <col min="74" max="74" width="36.5703125" style="3" customWidth="1"/>
-    <col min="75" max="75" width="19.85546875" style="3" customWidth="1"/>
-    <col min="76" max="76" width="31.5703125" style="3" customWidth="1"/>
-    <col min="77" max="77" width="19.28515625" style="3" customWidth="1"/>
-    <col min="78" max="78" width="21.85546875" style="3" customWidth="1"/>
-    <col min="79" max="79" width="20.7109375" style="3" customWidth="1"/>
-    <col min="80" max="80" width="38.85546875" style="3" customWidth="1"/>
-    <col min="81" max="81" width="25.42578125" style="3" customWidth="1"/>
-    <col min="82" max="82" width="33.5703125" style="3" customWidth="1"/>
-    <col min="83" max="83" width="35.28515625" style="3" customWidth="1"/>
-    <col min="84" max="84" width="35.7109375" style="3" customWidth="1"/>
-    <col min="85" max="85" width="32.28515625" style="3" customWidth="1"/>
-    <col min="86" max="86" width="29.7109375" style="3" customWidth="1"/>
-    <col min="87" max="87" width="19.7109375" style="3" customWidth="1"/>
-    <col min="88" max="88" width="24.42578125" style="3" customWidth="1"/>
-    <col min="89" max="89" width="32.42578125" style="3" customWidth="1"/>
-    <col min="90" max="90" width="36.85546875" style="3" customWidth="1"/>
-    <col min="91" max="91" width="14.5703125" style="3" customWidth="1"/>
-    <col min="92" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="5" width="31.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="31.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="40.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="37.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="33.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="33.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="38.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="34" style="3" customWidth="1"/>
+    <col min="17" max="17" width="34.85546875" style="3" customWidth="1"/>
+    <col min="18" max="18" width="35" style="3" customWidth="1"/>
+    <col min="19" max="19" width="31.5703125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="35.42578125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="25.42578125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="34.5703125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="34.42578125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="41.5703125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="40.140625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="41.7109375" style="3" customWidth="1"/>
+    <col min="27" max="27" width="40.42578125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="43.7109375" style="3" customWidth="1"/>
+    <col min="29" max="29" width="33.5703125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="43.42578125" style="3" customWidth="1"/>
+    <col min="31" max="31" width="35.7109375" style="3" customWidth="1"/>
+    <col min="32" max="32" width="30.7109375" style="3" customWidth="1"/>
+    <col min="33" max="34" width="34.28515625" style="3" customWidth="1"/>
+    <col min="35" max="35" width="41.28515625" style="3" customWidth="1"/>
+    <col min="36" max="36" width="21.5703125" style="3" customWidth="1"/>
+    <col min="37" max="37" width="28.7109375" style="3" customWidth="1"/>
+    <col min="38" max="38" width="25.85546875" style="3" customWidth="1"/>
+    <col min="39" max="39" width="28.28515625" style="3" customWidth="1"/>
+    <col min="40" max="40" width="27.28515625" style="3" customWidth="1"/>
+    <col min="41" max="41" width="23.7109375" style="3" customWidth="1"/>
+    <col min="42" max="42" width="29.85546875" style="3" customWidth="1"/>
+    <col min="43" max="43" width="25.5703125" style="3" customWidth="1"/>
+    <col min="44" max="45" width="29.140625" style="3" customWidth="1"/>
+    <col min="46" max="46" width="30" style="3" customWidth="1"/>
+    <col min="47" max="47" width="23.7109375" style="3" customWidth="1"/>
+    <col min="48" max="49" width="26.140625" style="3" customWidth="1"/>
+    <col min="50" max="50" width="26.5703125" style="3" customWidth="1"/>
+    <col min="51" max="51" width="16.85546875" style="3" customWidth="1"/>
+    <col min="52" max="52" width="29.85546875" style="3" customWidth="1"/>
+    <col min="53" max="53" width="37.28515625" style="3" customWidth="1"/>
+    <col min="54" max="61" width="9.140625" style="3"/>
+    <col min="62" max="62" width="36.85546875" style="3" customWidth="1"/>
+    <col min="63" max="63" width="9.140625" style="3"/>
+    <col min="64" max="64" width="25" style="3" customWidth="1"/>
+    <col min="65" max="65" width="35.7109375" style="3" customWidth="1"/>
+    <col min="66" max="66" width="39.28515625" style="3" customWidth="1"/>
+    <col min="67" max="67" width="31.42578125" style="3" customWidth="1"/>
+    <col min="68" max="69" width="9.140625" style="3"/>
+    <col min="70" max="70" width="29.42578125" style="3" customWidth="1"/>
+    <col min="71" max="71" width="36.85546875" style="3" customWidth="1"/>
+    <col min="72" max="72" width="26.5703125" style="3" customWidth="1"/>
+    <col min="73" max="73" width="33.28515625" style="3" customWidth="1"/>
+    <col min="74" max="74" width="37.7109375" style="3" customWidth="1"/>
+    <col min="75" max="75" width="35.140625" style="3" customWidth="1"/>
+    <col min="76" max="76" width="36.5703125" style="3" customWidth="1"/>
+    <col min="77" max="77" width="19.85546875" style="3" customWidth="1"/>
+    <col min="78" max="78" width="31.5703125" style="3" customWidth="1"/>
+    <col min="79" max="79" width="19.28515625" style="3" customWidth="1"/>
+    <col min="80" max="80" width="21.85546875" style="3" customWidth="1"/>
+    <col min="81" max="81" width="20.7109375" style="3" customWidth="1"/>
+    <col min="82" max="82" width="38.85546875" style="3" customWidth="1"/>
+    <col min="83" max="83" width="25.42578125" style="3" customWidth="1"/>
+    <col min="84" max="84" width="33.5703125" style="3" customWidth="1"/>
+    <col min="85" max="85" width="35.28515625" style="3" customWidth="1"/>
+    <col min="86" max="86" width="35.7109375" style="3" customWidth="1"/>
+    <col min="87" max="87" width="32.28515625" style="3" customWidth="1"/>
+    <col min="88" max="88" width="29.7109375" style="3" customWidth="1"/>
+    <col min="89" max="89" width="19.7109375" style="3" customWidth="1"/>
+    <col min="90" max="90" width="24.42578125" style="3" customWidth="1"/>
+    <col min="91" max="91" width="32.42578125" style="3" customWidth="1"/>
+    <col min="92" max="92" width="36.85546875" style="3" customWidth="1"/>
+    <col min="93" max="93" width="14.5703125" style="3" customWidth="1"/>
+    <col min="94" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -770,76 +781,82 @@
         <v>31</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -847,129 +864,145 @@
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="I2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="K2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="L2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="N2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="O2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="P2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="10" t="s">
+      <c r="S2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="W2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="X2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="AA2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AC2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="L3" s="8"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="11"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="11"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="D4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -981,36 +1014,44 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="11"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="11"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>65</v>
+      <c r="F5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -1018,14 +1059,17 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="11"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/TGLAutomation/src/test/resources/TestData/TestData.xlsx
+++ b/TGLAutomation/src/test/resources/TestData/TestData.xlsx
@@ -674,8 +674,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TGLAutomation/src/test/resources/TestData/TestData.xlsx
+++ b/TGLAutomation/src/test/resources/TestData/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>S.N.</t>
   </si>
@@ -218,9 +218,6 @@
     <t>4300104</t>
   </si>
   <si>
-    <t>4313146</t>
-  </si>
-  <si>
     <t>PIDIntegation</t>
   </si>
   <si>
@@ -231,6 +228,12 @@
   </si>
   <si>
     <t>Login_PasswordOnline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kea54@georgetown.edu </t>
+  </si>
+  <si>
+    <t>4314574</t>
   </si>
 </sst>
 </file>
@@ -674,8 +677,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,10 +689,11 @@
     <col min="4" max="4" width="33.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="33.28515625" style="3" customWidth="1"/>
-    <col min="7" max="8" width="31.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="40.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="30.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="40.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" style="3" customWidth="1"/>
     <col min="12" max="12" width="37.42578125" style="3" customWidth="1"/>
     <col min="13" max="13" width="33.140625" style="3" customWidth="1"/>
     <col min="14" max="14" width="33.42578125" style="3" customWidth="1"/>
@@ -781,22 +785,22 @@
         <v>31</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="H1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>33</v>
@@ -873,22 +877,22 @@
         <v>38</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>52</v>
@@ -967,8 +971,8 @@
         <v>38</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="8"/>
       <c r="K3" s="6"/>
       <c r="L3" s="8"/>
       <c r="M3" s="6"/>
@@ -1035,13 +1039,13 @@
         <v>38</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>63</v>
@@ -1050,7 +1054,7 @@
         <v>63</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -1065,7 +1069,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId1"/>
     <hyperlink ref="F2" r:id="rId2"/>
     <hyperlink ref="F5" r:id="rId3"/>
   </hyperlinks>

--- a/TGLAutomation/src/test/resources/TestData/TestData.xlsx
+++ b/TGLAutomation/src/test/resources/TestData/TestData.xlsx
@@ -230,10 +230,10 @@
     <t>Login_PasswordOnline</t>
   </si>
   <si>
-    <t xml:space="preserve">kea54@georgetown.edu </t>
-  </si>
-  <si>
-    <t>4314574</t>
+    <t>4327757</t>
+  </si>
+  <si>
+    <t>yendeli98@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1039,13 +1039,13 @@
         <v>38</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>63</v>

--- a/TGLAutomation/src/test/resources/TestData/TestData.xlsx
+++ b/TGLAutomation/src/test/resources/TestData/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Local_Rep\TGL-Automation\tgl-selenium-automation\tgl-selenium-automation\TGLAutomation\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TGL\TGL_Branch\tgl-selenium-automation\TGLAutomation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE5EF1D-4B61-4ACD-8654-9EB8A751CBB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TGLTestData" sheetId="8" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>S.N.</t>
   </si>
@@ -215,9 +216,6 @@
     <t>PIDDeferAccept</t>
   </si>
   <si>
-    <t>4300104</t>
-  </si>
-  <si>
     <t>PIDIntegation</t>
   </si>
   <si>
@@ -230,16 +228,16 @@
     <t>Login_PasswordOnline</t>
   </si>
   <si>
-    <t>4327757</t>
-  </si>
-  <si>
     <t>yendeli98@gmail.com</t>
+  </si>
+  <si>
+    <t>4118889</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -673,102 +671,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="40.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="37.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="33.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="33.42578125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="38.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="40.109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="37.44140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="33.109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="33.44140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="38.109375" style="3" customWidth="1"/>
     <col min="16" max="16" width="34" style="3" customWidth="1"/>
-    <col min="17" max="17" width="34.85546875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="34.88671875" style="3" customWidth="1"/>
     <col min="18" max="18" width="35" style="3" customWidth="1"/>
-    <col min="19" max="19" width="31.5703125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="35.42578125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="25.42578125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="34.5703125" style="3" customWidth="1"/>
-    <col min="23" max="23" width="34.42578125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="41.5703125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="40.140625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="41.7109375" style="3" customWidth="1"/>
-    <col min="27" max="27" width="40.42578125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="43.7109375" style="3" customWidth="1"/>
-    <col min="29" max="29" width="33.5703125" style="3" customWidth="1"/>
-    <col min="30" max="30" width="43.42578125" style="3" customWidth="1"/>
-    <col min="31" max="31" width="35.7109375" style="3" customWidth="1"/>
-    <col min="32" max="32" width="30.7109375" style="3" customWidth="1"/>
-    <col min="33" max="34" width="34.28515625" style="3" customWidth="1"/>
-    <col min="35" max="35" width="41.28515625" style="3" customWidth="1"/>
-    <col min="36" max="36" width="21.5703125" style="3" customWidth="1"/>
-    <col min="37" max="37" width="28.7109375" style="3" customWidth="1"/>
-    <col min="38" max="38" width="25.85546875" style="3" customWidth="1"/>
-    <col min="39" max="39" width="28.28515625" style="3" customWidth="1"/>
-    <col min="40" max="40" width="27.28515625" style="3" customWidth="1"/>
-    <col min="41" max="41" width="23.7109375" style="3" customWidth="1"/>
-    <col min="42" max="42" width="29.85546875" style="3" customWidth="1"/>
-    <col min="43" max="43" width="25.5703125" style="3" customWidth="1"/>
-    <col min="44" max="45" width="29.140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="31.5546875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="35.44140625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="25.44140625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="34.5546875" style="3" customWidth="1"/>
+    <col min="23" max="23" width="34.44140625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="41.5546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="40.109375" style="3" customWidth="1"/>
+    <col min="26" max="26" width="41.6640625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="40.44140625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="43.6640625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="33.5546875" style="3" customWidth="1"/>
+    <col min="30" max="30" width="43.44140625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="35.6640625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="30.6640625" style="3" customWidth="1"/>
+    <col min="33" max="34" width="34.33203125" style="3" customWidth="1"/>
+    <col min="35" max="35" width="41.33203125" style="3" customWidth="1"/>
+    <col min="36" max="36" width="21.5546875" style="3" customWidth="1"/>
+    <col min="37" max="37" width="28.6640625" style="3" customWidth="1"/>
+    <col min="38" max="38" width="25.88671875" style="3" customWidth="1"/>
+    <col min="39" max="39" width="28.33203125" style="3" customWidth="1"/>
+    <col min="40" max="40" width="27.33203125" style="3" customWidth="1"/>
+    <col min="41" max="41" width="23.6640625" style="3" customWidth="1"/>
+    <col min="42" max="42" width="29.88671875" style="3" customWidth="1"/>
+    <col min="43" max="43" width="25.5546875" style="3" customWidth="1"/>
+    <col min="44" max="45" width="29.109375" style="3" customWidth="1"/>
     <col min="46" max="46" width="30" style="3" customWidth="1"/>
-    <col min="47" max="47" width="23.7109375" style="3" customWidth="1"/>
-    <col min="48" max="49" width="26.140625" style="3" customWidth="1"/>
-    <col min="50" max="50" width="26.5703125" style="3" customWidth="1"/>
-    <col min="51" max="51" width="16.85546875" style="3" customWidth="1"/>
-    <col min="52" max="52" width="29.85546875" style="3" customWidth="1"/>
-    <col min="53" max="53" width="37.28515625" style="3" customWidth="1"/>
-    <col min="54" max="61" width="9.140625" style="3"/>
-    <col min="62" max="62" width="36.85546875" style="3" customWidth="1"/>
-    <col min="63" max="63" width="9.140625" style="3"/>
+    <col min="47" max="47" width="23.6640625" style="3" customWidth="1"/>
+    <col min="48" max="49" width="26.109375" style="3" customWidth="1"/>
+    <col min="50" max="50" width="26.5546875" style="3" customWidth="1"/>
+    <col min="51" max="51" width="16.88671875" style="3" customWidth="1"/>
+    <col min="52" max="52" width="29.88671875" style="3" customWidth="1"/>
+    <col min="53" max="53" width="37.33203125" style="3" customWidth="1"/>
+    <col min="54" max="61" width="9.109375" style="3"/>
+    <col min="62" max="62" width="36.88671875" style="3" customWidth="1"/>
+    <col min="63" max="63" width="9.109375" style="3"/>
     <col min="64" max="64" width="25" style="3" customWidth="1"/>
-    <col min="65" max="65" width="35.7109375" style="3" customWidth="1"/>
-    <col min="66" max="66" width="39.28515625" style="3" customWidth="1"/>
-    <col min="67" max="67" width="31.42578125" style="3" customWidth="1"/>
-    <col min="68" max="69" width="9.140625" style="3"/>
-    <col min="70" max="70" width="29.42578125" style="3" customWidth="1"/>
-    <col min="71" max="71" width="36.85546875" style="3" customWidth="1"/>
-    <col min="72" max="72" width="26.5703125" style="3" customWidth="1"/>
-    <col min="73" max="73" width="33.28515625" style="3" customWidth="1"/>
-    <col min="74" max="74" width="37.7109375" style="3" customWidth="1"/>
-    <col min="75" max="75" width="35.140625" style="3" customWidth="1"/>
-    <col min="76" max="76" width="36.5703125" style="3" customWidth="1"/>
-    <col min="77" max="77" width="19.85546875" style="3" customWidth="1"/>
-    <col min="78" max="78" width="31.5703125" style="3" customWidth="1"/>
-    <col min="79" max="79" width="19.28515625" style="3" customWidth="1"/>
-    <col min="80" max="80" width="21.85546875" style="3" customWidth="1"/>
-    <col min="81" max="81" width="20.7109375" style="3" customWidth="1"/>
-    <col min="82" max="82" width="38.85546875" style="3" customWidth="1"/>
-    <col min="83" max="83" width="25.42578125" style="3" customWidth="1"/>
-    <col min="84" max="84" width="33.5703125" style="3" customWidth="1"/>
-    <col min="85" max="85" width="35.28515625" style="3" customWidth="1"/>
-    <col min="86" max="86" width="35.7109375" style="3" customWidth="1"/>
-    <col min="87" max="87" width="32.28515625" style="3" customWidth="1"/>
-    <col min="88" max="88" width="29.7109375" style="3" customWidth="1"/>
-    <col min="89" max="89" width="19.7109375" style="3" customWidth="1"/>
-    <col min="90" max="90" width="24.42578125" style="3" customWidth="1"/>
-    <col min="91" max="91" width="32.42578125" style="3" customWidth="1"/>
-    <col min="92" max="92" width="36.85546875" style="3" customWidth="1"/>
-    <col min="93" max="93" width="14.5703125" style="3" customWidth="1"/>
-    <col min="94" max="16384" width="9.140625" style="3"/>
+    <col min="65" max="65" width="35.6640625" style="3" customWidth="1"/>
+    <col min="66" max="66" width="39.33203125" style="3" customWidth="1"/>
+    <col min="67" max="67" width="31.44140625" style="3" customWidth="1"/>
+    <col min="68" max="69" width="9.109375" style="3"/>
+    <col min="70" max="70" width="29.44140625" style="3" customWidth="1"/>
+    <col min="71" max="71" width="36.88671875" style="3" customWidth="1"/>
+    <col min="72" max="72" width="26.5546875" style="3" customWidth="1"/>
+    <col min="73" max="73" width="33.33203125" style="3" customWidth="1"/>
+    <col min="74" max="74" width="37.6640625" style="3" customWidth="1"/>
+    <col min="75" max="75" width="35.109375" style="3" customWidth="1"/>
+    <col min="76" max="76" width="36.5546875" style="3" customWidth="1"/>
+    <col min="77" max="77" width="19.88671875" style="3" customWidth="1"/>
+    <col min="78" max="78" width="31.5546875" style="3" customWidth="1"/>
+    <col min="79" max="79" width="19.33203125" style="3" customWidth="1"/>
+    <col min="80" max="80" width="21.88671875" style="3" customWidth="1"/>
+    <col min="81" max="81" width="20.6640625" style="3" customWidth="1"/>
+    <col min="82" max="82" width="38.88671875" style="3" customWidth="1"/>
+    <col min="83" max="83" width="25.44140625" style="3" customWidth="1"/>
+    <col min="84" max="84" width="33.5546875" style="3" customWidth="1"/>
+    <col min="85" max="85" width="35.33203125" style="3" customWidth="1"/>
+    <col min="86" max="86" width="35.6640625" style="3" customWidth="1"/>
+    <col min="87" max="87" width="32.33203125" style="3" customWidth="1"/>
+    <col min="88" max="88" width="29.6640625" style="3" customWidth="1"/>
+    <col min="89" max="89" width="19.6640625" style="3" customWidth="1"/>
+    <col min="90" max="90" width="24.44140625" style="3" customWidth="1"/>
+    <col min="91" max="91" width="32.44140625" style="3" customWidth="1"/>
+    <col min="92" max="92" width="36.88671875" style="3" customWidth="1"/>
+    <col min="93" max="93" width="14.5546875" style="3" customWidth="1"/>
+    <col min="94" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -785,13 +783,13 @@
         <v>31</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>60</v>
@@ -860,7 +858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -877,7 +875,7 @@
         <v>38</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>32</v>
@@ -948,7 +946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -985,7 +983,7 @@
       <c r="T3" s="6"/>
       <c r="U3" s="11"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1022,7 +1020,7 @@
       <c r="T4" s="6"/>
       <c r="U4" s="11"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1039,22 +1037,22 @@
         <v>38</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="3">
+        <v>4327757</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>63</v>
-      </c>
       <c r="J5" s="10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -1069,9 +1067,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/TGLAutomation/src/test/resources/TestData/TestData.xlsx
+++ b/TGLAutomation/src/test/resources/TestData/TestData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TGL\TGL_Branch\tgl-selenium-automation\TGLAutomation\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Local_Rep\TGLAdmin\tgl-selenium-automation\TGLAutomation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE5EF1D-4B61-4ACD-8654-9EB8A751CBB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="TGLTestData" sheetId="8" r:id="rId1"/>
@@ -24,6 +23,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Nitin Sharma</author>
+  </authors>
+  <commentList>
+    <comment ref="F5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nitin Sharma:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+change email id according to PIDIntegration value</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
@@ -228,17 +261,17 @@
     <t>Login_PasswordOnline</t>
   </si>
   <si>
-    <t>yendeli98@gmail.com</t>
-  </si>
-  <si>
     <t>4118889</t>
+  </si>
+  <si>
+    <t>meeyaaken2@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +307,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -671,102 +717,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="40.109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="37.44140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="33.109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="33.44140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="38.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="40.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="37.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="33.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="33.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="38.140625" style="3" customWidth="1"/>
     <col min="16" max="16" width="34" style="3" customWidth="1"/>
-    <col min="17" max="17" width="34.88671875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="34.85546875" style="3" customWidth="1"/>
     <col min="18" max="18" width="35" style="3" customWidth="1"/>
-    <col min="19" max="19" width="31.5546875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="35.44140625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="25.44140625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="34.5546875" style="3" customWidth="1"/>
-    <col min="23" max="23" width="34.44140625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="41.5546875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="40.109375" style="3" customWidth="1"/>
-    <col min="26" max="26" width="41.6640625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="40.44140625" style="3" customWidth="1"/>
-    <col min="28" max="28" width="43.6640625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="33.5546875" style="3" customWidth="1"/>
-    <col min="30" max="30" width="43.44140625" style="3" customWidth="1"/>
-    <col min="31" max="31" width="35.6640625" style="3" customWidth="1"/>
-    <col min="32" max="32" width="30.6640625" style="3" customWidth="1"/>
-    <col min="33" max="34" width="34.33203125" style="3" customWidth="1"/>
-    <col min="35" max="35" width="41.33203125" style="3" customWidth="1"/>
-    <col min="36" max="36" width="21.5546875" style="3" customWidth="1"/>
-    <col min="37" max="37" width="28.6640625" style="3" customWidth="1"/>
-    <col min="38" max="38" width="25.88671875" style="3" customWidth="1"/>
-    <col min="39" max="39" width="28.33203125" style="3" customWidth="1"/>
-    <col min="40" max="40" width="27.33203125" style="3" customWidth="1"/>
-    <col min="41" max="41" width="23.6640625" style="3" customWidth="1"/>
-    <col min="42" max="42" width="29.88671875" style="3" customWidth="1"/>
-    <col min="43" max="43" width="25.5546875" style="3" customWidth="1"/>
-    <col min="44" max="45" width="29.109375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="31.5703125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="35.42578125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="25.42578125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="34.5703125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="34.42578125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="41.5703125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="40.140625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="41.7109375" style="3" customWidth="1"/>
+    <col min="27" max="27" width="40.42578125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="43.7109375" style="3" customWidth="1"/>
+    <col min="29" max="29" width="33.5703125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="43.42578125" style="3" customWidth="1"/>
+    <col min="31" max="31" width="35.7109375" style="3" customWidth="1"/>
+    <col min="32" max="32" width="30.7109375" style="3" customWidth="1"/>
+    <col min="33" max="34" width="34.28515625" style="3" customWidth="1"/>
+    <col min="35" max="35" width="41.28515625" style="3" customWidth="1"/>
+    <col min="36" max="36" width="21.5703125" style="3" customWidth="1"/>
+    <col min="37" max="37" width="28.7109375" style="3" customWidth="1"/>
+    <col min="38" max="38" width="25.85546875" style="3" customWidth="1"/>
+    <col min="39" max="39" width="28.28515625" style="3" customWidth="1"/>
+    <col min="40" max="40" width="27.28515625" style="3" customWidth="1"/>
+    <col min="41" max="41" width="23.7109375" style="3" customWidth="1"/>
+    <col min="42" max="42" width="29.85546875" style="3" customWidth="1"/>
+    <col min="43" max="43" width="25.5703125" style="3" customWidth="1"/>
+    <col min="44" max="45" width="29.140625" style="3" customWidth="1"/>
     <col min="46" max="46" width="30" style="3" customWidth="1"/>
-    <col min="47" max="47" width="23.6640625" style="3" customWidth="1"/>
-    <col min="48" max="49" width="26.109375" style="3" customWidth="1"/>
-    <col min="50" max="50" width="26.5546875" style="3" customWidth="1"/>
-    <col min="51" max="51" width="16.88671875" style="3" customWidth="1"/>
-    <col min="52" max="52" width="29.88671875" style="3" customWidth="1"/>
-    <col min="53" max="53" width="37.33203125" style="3" customWidth="1"/>
-    <col min="54" max="61" width="9.109375" style="3"/>
-    <col min="62" max="62" width="36.88671875" style="3" customWidth="1"/>
-    <col min="63" max="63" width="9.109375" style="3"/>
+    <col min="47" max="47" width="23.7109375" style="3" customWidth="1"/>
+    <col min="48" max="49" width="26.140625" style="3" customWidth="1"/>
+    <col min="50" max="50" width="26.5703125" style="3" customWidth="1"/>
+    <col min="51" max="51" width="16.85546875" style="3" customWidth="1"/>
+    <col min="52" max="52" width="29.85546875" style="3" customWidth="1"/>
+    <col min="53" max="53" width="37.28515625" style="3" customWidth="1"/>
+    <col min="54" max="61" width="9.140625" style="3"/>
+    <col min="62" max="62" width="36.85546875" style="3" customWidth="1"/>
+    <col min="63" max="63" width="9.140625" style="3"/>
     <col min="64" max="64" width="25" style="3" customWidth="1"/>
-    <col min="65" max="65" width="35.6640625" style="3" customWidth="1"/>
-    <col min="66" max="66" width="39.33203125" style="3" customWidth="1"/>
-    <col min="67" max="67" width="31.44140625" style="3" customWidth="1"/>
-    <col min="68" max="69" width="9.109375" style="3"/>
-    <col min="70" max="70" width="29.44140625" style="3" customWidth="1"/>
-    <col min="71" max="71" width="36.88671875" style="3" customWidth="1"/>
-    <col min="72" max="72" width="26.5546875" style="3" customWidth="1"/>
-    <col min="73" max="73" width="33.33203125" style="3" customWidth="1"/>
-    <col min="74" max="74" width="37.6640625" style="3" customWidth="1"/>
-    <col min="75" max="75" width="35.109375" style="3" customWidth="1"/>
-    <col min="76" max="76" width="36.5546875" style="3" customWidth="1"/>
-    <col min="77" max="77" width="19.88671875" style="3" customWidth="1"/>
-    <col min="78" max="78" width="31.5546875" style="3" customWidth="1"/>
-    <col min="79" max="79" width="19.33203125" style="3" customWidth="1"/>
-    <col min="80" max="80" width="21.88671875" style="3" customWidth="1"/>
-    <col min="81" max="81" width="20.6640625" style="3" customWidth="1"/>
-    <col min="82" max="82" width="38.88671875" style="3" customWidth="1"/>
-    <col min="83" max="83" width="25.44140625" style="3" customWidth="1"/>
-    <col min="84" max="84" width="33.5546875" style="3" customWidth="1"/>
-    <col min="85" max="85" width="35.33203125" style="3" customWidth="1"/>
-    <col min="86" max="86" width="35.6640625" style="3" customWidth="1"/>
-    <col min="87" max="87" width="32.33203125" style="3" customWidth="1"/>
-    <col min="88" max="88" width="29.6640625" style="3" customWidth="1"/>
-    <col min="89" max="89" width="19.6640625" style="3" customWidth="1"/>
-    <col min="90" max="90" width="24.44140625" style="3" customWidth="1"/>
-    <col min="91" max="91" width="32.44140625" style="3" customWidth="1"/>
-    <col min="92" max="92" width="36.88671875" style="3" customWidth="1"/>
-    <col min="93" max="93" width="14.5546875" style="3" customWidth="1"/>
-    <col min="94" max="16384" width="9.109375" style="3"/>
+    <col min="65" max="65" width="35.7109375" style="3" customWidth="1"/>
+    <col min="66" max="66" width="39.28515625" style="3" customWidth="1"/>
+    <col min="67" max="67" width="31.42578125" style="3" customWidth="1"/>
+    <col min="68" max="69" width="9.140625" style="3"/>
+    <col min="70" max="70" width="29.42578125" style="3" customWidth="1"/>
+    <col min="71" max="71" width="36.85546875" style="3" customWidth="1"/>
+    <col min="72" max="72" width="26.5703125" style="3" customWidth="1"/>
+    <col min="73" max="73" width="33.28515625" style="3" customWidth="1"/>
+    <col min="74" max="74" width="37.7109375" style="3" customWidth="1"/>
+    <col min="75" max="75" width="35.140625" style="3" customWidth="1"/>
+    <col min="76" max="76" width="36.5703125" style="3" customWidth="1"/>
+    <col min="77" max="77" width="19.85546875" style="3" customWidth="1"/>
+    <col min="78" max="78" width="31.5703125" style="3" customWidth="1"/>
+    <col min="79" max="79" width="19.28515625" style="3" customWidth="1"/>
+    <col min="80" max="80" width="21.85546875" style="3" customWidth="1"/>
+    <col min="81" max="81" width="20.7109375" style="3" customWidth="1"/>
+    <col min="82" max="82" width="38.85546875" style="3" customWidth="1"/>
+    <col min="83" max="83" width="25.42578125" style="3" customWidth="1"/>
+    <col min="84" max="84" width="33.5703125" style="3" customWidth="1"/>
+    <col min="85" max="85" width="35.28515625" style="3" customWidth="1"/>
+    <col min="86" max="86" width="35.7109375" style="3" customWidth="1"/>
+    <col min="87" max="87" width="32.28515625" style="3" customWidth="1"/>
+    <col min="88" max="88" width="29.7109375" style="3" customWidth="1"/>
+    <col min="89" max="89" width="19.7109375" style="3" customWidth="1"/>
+    <col min="90" max="90" width="24.42578125" style="3" customWidth="1"/>
+    <col min="91" max="91" width="32.42578125" style="3" customWidth="1"/>
+    <col min="92" max="92" width="36.85546875" style="3" customWidth="1"/>
+    <col min="93" max="93" width="14.5703125" style="3" customWidth="1"/>
+    <col min="94" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -858,7 +904,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -946,7 +992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -983,7 +1029,7 @@
       <c r="T3" s="6"/>
       <c r="U3" s="11"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1020,7 +1066,7 @@
       <c r="T4" s="6"/>
       <c r="U4" s="11"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1037,22 +1083,22 @@
         <v>38</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="3">
-        <v>4327757</v>
+      <c r="H5" s="6">
+        <v>4373388</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -1067,11 +1113,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/TGLAutomation/src/test/resources/TestData/TestData.xlsx
+++ b/TGLAutomation/src/test/resources/TestData/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Local_Rep\TGLAdmin\tgl-selenium-automation\TGLAutomation\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TGL\TGLNEW\tgl-selenium-automation\TGLAutomation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5597D1-14D7-4E71-BAD1-9DEEE1E7C334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TGLTestData" sheetId="8" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nitin Sharma</author>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -270,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -717,102 +718,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="40.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="37.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="33.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="33.42578125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="38.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="40.109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="37.44140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="33.109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="33.44140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="38.109375" style="3" customWidth="1"/>
     <col min="16" max="16" width="34" style="3" customWidth="1"/>
-    <col min="17" max="17" width="34.85546875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="34.88671875" style="3" customWidth="1"/>
     <col min="18" max="18" width="35" style="3" customWidth="1"/>
-    <col min="19" max="19" width="31.5703125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="35.42578125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="25.42578125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="34.5703125" style="3" customWidth="1"/>
-    <col min="23" max="23" width="34.42578125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="41.5703125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="40.140625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="41.7109375" style="3" customWidth="1"/>
-    <col min="27" max="27" width="40.42578125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="43.7109375" style="3" customWidth="1"/>
-    <col min="29" max="29" width="33.5703125" style="3" customWidth="1"/>
-    <col min="30" max="30" width="43.42578125" style="3" customWidth="1"/>
-    <col min="31" max="31" width="35.7109375" style="3" customWidth="1"/>
-    <col min="32" max="32" width="30.7109375" style="3" customWidth="1"/>
-    <col min="33" max="34" width="34.28515625" style="3" customWidth="1"/>
-    <col min="35" max="35" width="41.28515625" style="3" customWidth="1"/>
-    <col min="36" max="36" width="21.5703125" style="3" customWidth="1"/>
-    <col min="37" max="37" width="28.7109375" style="3" customWidth="1"/>
-    <col min="38" max="38" width="25.85546875" style="3" customWidth="1"/>
-    <col min="39" max="39" width="28.28515625" style="3" customWidth="1"/>
-    <col min="40" max="40" width="27.28515625" style="3" customWidth="1"/>
-    <col min="41" max="41" width="23.7109375" style="3" customWidth="1"/>
-    <col min="42" max="42" width="29.85546875" style="3" customWidth="1"/>
-    <col min="43" max="43" width="25.5703125" style="3" customWidth="1"/>
-    <col min="44" max="45" width="29.140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="31.5546875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="35.44140625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="25.44140625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="34.5546875" style="3" customWidth="1"/>
+    <col min="23" max="23" width="34.44140625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="41.5546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="40.109375" style="3" customWidth="1"/>
+    <col min="26" max="26" width="41.6640625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="40.44140625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="43.6640625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="33.5546875" style="3" customWidth="1"/>
+    <col min="30" max="30" width="43.44140625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="35.6640625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="30.6640625" style="3" customWidth="1"/>
+    <col min="33" max="34" width="34.33203125" style="3" customWidth="1"/>
+    <col min="35" max="35" width="41.33203125" style="3" customWidth="1"/>
+    <col min="36" max="36" width="21.5546875" style="3" customWidth="1"/>
+    <col min="37" max="37" width="28.6640625" style="3" customWidth="1"/>
+    <col min="38" max="38" width="25.88671875" style="3" customWidth="1"/>
+    <col min="39" max="39" width="28.33203125" style="3" customWidth="1"/>
+    <col min="40" max="40" width="27.33203125" style="3" customWidth="1"/>
+    <col min="41" max="41" width="23.6640625" style="3" customWidth="1"/>
+    <col min="42" max="42" width="29.88671875" style="3" customWidth="1"/>
+    <col min="43" max="43" width="25.5546875" style="3" customWidth="1"/>
+    <col min="44" max="45" width="29.109375" style="3" customWidth="1"/>
     <col min="46" max="46" width="30" style="3" customWidth="1"/>
-    <col min="47" max="47" width="23.7109375" style="3" customWidth="1"/>
-    <col min="48" max="49" width="26.140625" style="3" customWidth="1"/>
-    <col min="50" max="50" width="26.5703125" style="3" customWidth="1"/>
-    <col min="51" max="51" width="16.85546875" style="3" customWidth="1"/>
-    <col min="52" max="52" width="29.85546875" style="3" customWidth="1"/>
-    <col min="53" max="53" width="37.28515625" style="3" customWidth="1"/>
-    <col min="54" max="61" width="9.140625" style="3"/>
-    <col min="62" max="62" width="36.85546875" style="3" customWidth="1"/>
-    <col min="63" max="63" width="9.140625" style="3"/>
+    <col min="47" max="47" width="23.6640625" style="3" customWidth="1"/>
+    <col min="48" max="49" width="26.109375" style="3" customWidth="1"/>
+    <col min="50" max="50" width="26.5546875" style="3" customWidth="1"/>
+    <col min="51" max="51" width="16.88671875" style="3" customWidth="1"/>
+    <col min="52" max="52" width="29.88671875" style="3" customWidth="1"/>
+    <col min="53" max="53" width="37.33203125" style="3" customWidth="1"/>
+    <col min="54" max="61" width="9.109375" style="3"/>
+    <col min="62" max="62" width="36.88671875" style="3" customWidth="1"/>
+    <col min="63" max="63" width="9.109375" style="3"/>
     <col min="64" max="64" width="25" style="3" customWidth="1"/>
-    <col min="65" max="65" width="35.7109375" style="3" customWidth="1"/>
-    <col min="66" max="66" width="39.28515625" style="3" customWidth="1"/>
-    <col min="67" max="67" width="31.42578125" style="3" customWidth="1"/>
-    <col min="68" max="69" width="9.140625" style="3"/>
-    <col min="70" max="70" width="29.42578125" style="3" customWidth="1"/>
-    <col min="71" max="71" width="36.85546875" style="3" customWidth="1"/>
-    <col min="72" max="72" width="26.5703125" style="3" customWidth="1"/>
-    <col min="73" max="73" width="33.28515625" style="3" customWidth="1"/>
-    <col min="74" max="74" width="37.7109375" style="3" customWidth="1"/>
-    <col min="75" max="75" width="35.140625" style="3" customWidth="1"/>
-    <col min="76" max="76" width="36.5703125" style="3" customWidth="1"/>
-    <col min="77" max="77" width="19.85546875" style="3" customWidth="1"/>
-    <col min="78" max="78" width="31.5703125" style="3" customWidth="1"/>
-    <col min="79" max="79" width="19.28515625" style="3" customWidth="1"/>
-    <col min="80" max="80" width="21.85546875" style="3" customWidth="1"/>
-    <col min="81" max="81" width="20.7109375" style="3" customWidth="1"/>
-    <col min="82" max="82" width="38.85546875" style="3" customWidth="1"/>
-    <col min="83" max="83" width="25.42578125" style="3" customWidth="1"/>
-    <col min="84" max="84" width="33.5703125" style="3" customWidth="1"/>
-    <col min="85" max="85" width="35.28515625" style="3" customWidth="1"/>
-    <col min="86" max="86" width="35.7109375" style="3" customWidth="1"/>
-    <col min="87" max="87" width="32.28515625" style="3" customWidth="1"/>
-    <col min="88" max="88" width="29.7109375" style="3" customWidth="1"/>
-    <col min="89" max="89" width="19.7109375" style="3" customWidth="1"/>
-    <col min="90" max="90" width="24.42578125" style="3" customWidth="1"/>
-    <col min="91" max="91" width="32.42578125" style="3" customWidth="1"/>
-    <col min="92" max="92" width="36.85546875" style="3" customWidth="1"/>
-    <col min="93" max="93" width="14.5703125" style="3" customWidth="1"/>
-    <col min="94" max="16384" width="9.140625" style="3"/>
+    <col min="65" max="65" width="35.6640625" style="3" customWidth="1"/>
+    <col min="66" max="66" width="39.33203125" style="3" customWidth="1"/>
+    <col min="67" max="67" width="31.44140625" style="3" customWidth="1"/>
+    <col min="68" max="69" width="9.109375" style="3"/>
+    <col min="70" max="70" width="29.44140625" style="3" customWidth="1"/>
+    <col min="71" max="71" width="36.88671875" style="3" customWidth="1"/>
+    <col min="72" max="72" width="26.5546875" style="3" customWidth="1"/>
+    <col min="73" max="73" width="33.33203125" style="3" customWidth="1"/>
+    <col min="74" max="74" width="37.6640625" style="3" customWidth="1"/>
+    <col min="75" max="75" width="35.109375" style="3" customWidth="1"/>
+    <col min="76" max="76" width="36.5546875" style="3" customWidth="1"/>
+    <col min="77" max="77" width="19.88671875" style="3" customWidth="1"/>
+    <col min="78" max="78" width="31.5546875" style="3" customWidth="1"/>
+    <col min="79" max="79" width="19.33203125" style="3" customWidth="1"/>
+    <col min="80" max="80" width="21.88671875" style="3" customWidth="1"/>
+    <col min="81" max="81" width="20.6640625" style="3" customWidth="1"/>
+    <col min="82" max="82" width="38.88671875" style="3" customWidth="1"/>
+    <col min="83" max="83" width="25.44140625" style="3" customWidth="1"/>
+    <col min="84" max="84" width="33.5546875" style="3" customWidth="1"/>
+    <col min="85" max="85" width="35.33203125" style="3" customWidth="1"/>
+    <col min="86" max="86" width="35.6640625" style="3" customWidth="1"/>
+    <col min="87" max="87" width="32.33203125" style="3" customWidth="1"/>
+    <col min="88" max="88" width="29.6640625" style="3" customWidth="1"/>
+    <col min="89" max="89" width="19.6640625" style="3" customWidth="1"/>
+    <col min="90" max="90" width="24.44140625" style="3" customWidth="1"/>
+    <col min="91" max="91" width="32.44140625" style="3" customWidth="1"/>
+    <col min="92" max="92" width="36.88671875" style="3" customWidth="1"/>
+    <col min="93" max="93" width="14.5546875" style="3" customWidth="1"/>
+    <col min="94" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -904,7 +905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -992,7 +993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1029,7 +1030,7 @@
       <c r="T3" s="6"/>
       <c r="U3" s="11"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1066,7 +1067,7 @@
       <c r="T4" s="6"/>
       <c r="U4" s="11"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1113,9 +1114,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/TGLAutomation/src/test/resources/TestData/TestData.xlsx
+++ b/TGLAutomation/src/test/resources/TestData/TestData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TGL\TGLNEW\tgl-selenium-automation\TGLAutomation\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Local_Rep\TGLAdmin\tgl-selenium-automation\TGLAutomation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5597D1-14D7-4E71-BAD1-9DEEE1E7C334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="TGLTestData" sheetId="8" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nitin Sharma</author>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>S.N.</t>
   </si>
@@ -262,16 +261,13 @@
     <t>Login_PasswordOnline</t>
   </si>
   <si>
-    <t>4118889</t>
-  </si>
-  <si>
-    <t>meeyaaken2@gmail.com</t>
+    <t>amadasun@usc.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -718,102 +714,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="40.109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="37.44140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="33.109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="33.44140625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="38.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="40.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="37.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="33.140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="33.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="38.140625" style="3" customWidth="1"/>
     <col min="16" max="16" width="34" style="3" customWidth="1"/>
-    <col min="17" max="17" width="34.88671875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="34.85546875" style="3" customWidth="1"/>
     <col min="18" max="18" width="35" style="3" customWidth="1"/>
-    <col min="19" max="19" width="31.5546875" style="3" customWidth="1"/>
-    <col min="20" max="20" width="35.44140625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="25.44140625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="34.5546875" style="3" customWidth="1"/>
-    <col min="23" max="23" width="34.44140625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="41.5546875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="40.109375" style="3" customWidth="1"/>
-    <col min="26" max="26" width="41.6640625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="40.44140625" style="3" customWidth="1"/>
-    <col min="28" max="28" width="43.6640625" style="3" customWidth="1"/>
-    <col min="29" max="29" width="33.5546875" style="3" customWidth="1"/>
-    <col min="30" max="30" width="43.44140625" style="3" customWidth="1"/>
-    <col min="31" max="31" width="35.6640625" style="3" customWidth="1"/>
-    <col min="32" max="32" width="30.6640625" style="3" customWidth="1"/>
-    <col min="33" max="34" width="34.33203125" style="3" customWidth="1"/>
-    <col min="35" max="35" width="41.33203125" style="3" customWidth="1"/>
-    <col min="36" max="36" width="21.5546875" style="3" customWidth="1"/>
-    <col min="37" max="37" width="28.6640625" style="3" customWidth="1"/>
-    <col min="38" max="38" width="25.88671875" style="3" customWidth="1"/>
-    <col min="39" max="39" width="28.33203125" style="3" customWidth="1"/>
-    <col min="40" max="40" width="27.33203125" style="3" customWidth="1"/>
-    <col min="41" max="41" width="23.6640625" style="3" customWidth="1"/>
-    <col min="42" max="42" width="29.88671875" style="3" customWidth="1"/>
-    <col min="43" max="43" width="25.5546875" style="3" customWidth="1"/>
-    <col min="44" max="45" width="29.109375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="31.5703125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="35.42578125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="25.42578125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="34.5703125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="34.42578125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="41.5703125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="40.140625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="41.7109375" style="3" customWidth="1"/>
+    <col min="27" max="27" width="40.42578125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="43.7109375" style="3" customWidth="1"/>
+    <col min="29" max="29" width="33.5703125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="43.42578125" style="3" customWidth="1"/>
+    <col min="31" max="31" width="35.7109375" style="3" customWidth="1"/>
+    <col min="32" max="32" width="30.7109375" style="3" customWidth="1"/>
+    <col min="33" max="34" width="34.28515625" style="3" customWidth="1"/>
+    <col min="35" max="35" width="41.28515625" style="3" customWidth="1"/>
+    <col min="36" max="36" width="21.5703125" style="3" customWidth="1"/>
+    <col min="37" max="37" width="28.7109375" style="3" customWidth="1"/>
+    <col min="38" max="38" width="25.85546875" style="3" customWidth="1"/>
+    <col min="39" max="39" width="28.28515625" style="3" customWidth="1"/>
+    <col min="40" max="40" width="27.28515625" style="3" customWidth="1"/>
+    <col min="41" max="41" width="23.7109375" style="3" customWidth="1"/>
+    <col min="42" max="42" width="29.85546875" style="3" customWidth="1"/>
+    <col min="43" max="43" width="25.5703125" style="3" customWidth="1"/>
+    <col min="44" max="45" width="29.140625" style="3" customWidth="1"/>
     <col min="46" max="46" width="30" style="3" customWidth="1"/>
-    <col min="47" max="47" width="23.6640625" style="3" customWidth="1"/>
-    <col min="48" max="49" width="26.109375" style="3" customWidth="1"/>
-    <col min="50" max="50" width="26.5546875" style="3" customWidth="1"/>
-    <col min="51" max="51" width="16.88671875" style="3" customWidth="1"/>
-    <col min="52" max="52" width="29.88671875" style="3" customWidth="1"/>
-    <col min="53" max="53" width="37.33203125" style="3" customWidth="1"/>
-    <col min="54" max="61" width="9.109375" style="3"/>
-    <col min="62" max="62" width="36.88671875" style="3" customWidth="1"/>
-    <col min="63" max="63" width="9.109375" style="3"/>
+    <col min="47" max="47" width="23.7109375" style="3" customWidth="1"/>
+    <col min="48" max="49" width="26.140625" style="3" customWidth="1"/>
+    <col min="50" max="50" width="26.5703125" style="3" customWidth="1"/>
+    <col min="51" max="51" width="16.85546875" style="3" customWidth="1"/>
+    <col min="52" max="52" width="29.85546875" style="3" customWidth="1"/>
+    <col min="53" max="53" width="37.28515625" style="3" customWidth="1"/>
+    <col min="54" max="61" width="9.140625" style="3"/>
+    <col min="62" max="62" width="36.85546875" style="3" customWidth="1"/>
+    <col min="63" max="63" width="9.140625" style="3"/>
     <col min="64" max="64" width="25" style="3" customWidth="1"/>
-    <col min="65" max="65" width="35.6640625" style="3" customWidth="1"/>
-    <col min="66" max="66" width="39.33203125" style="3" customWidth="1"/>
-    <col min="67" max="67" width="31.44140625" style="3" customWidth="1"/>
-    <col min="68" max="69" width="9.109375" style="3"/>
-    <col min="70" max="70" width="29.44140625" style="3" customWidth="1"/>
-    <col min="71" max="71" width="36.88671875" style="3" customWidth="1"/>
-    <col min="72" max="72" width="26.5546875" style="3" customWidth="1"/>
-    <col min="73" max="73" width="33.33203125" style="3" customWidth="1"/>
-    <col min="74" max="74" width="37.6640625" style="3" customWidth="1"/>
-    <col min="75" max="75" width="35.109375" style="3" customWidth="1"/>
-    <col min="76" max="76" width="36.5546875" style="3" customWidth="1"/>
-    <col min="77" max="77" width="19.88671875" style="3" customWidth="1"/>
-    <col min="78" max="78" width="31.5546875" style="3" customWidth="1"/>
-    <col min="79" max="79" width="19.33203125" style="3" customWidth="1"/>
-    <col min="80" max="80" width="21.88671875" style="3" customWidth="1"/>
-    <col min="81" max="81" width="20.6640625" style="3" customWidth="1"/>
-    <col min="82" max="82" width="38.88671875" style="3" customWidth="1"/>
-    <col min="83" max="83" width="25.44140625" style="3" customWidth="1"/>
-    <col min="84" max="84" width="33.5546875" style="3" customWidth="1"/>
-    <col min="85" max="85" width="35.33203125" style="3" customWidth="1"/>
-    <col min="86" max="86" width="35.6640625" style="3" customWidth="1"/>
-    <col min="87" max="87" width="32.33203125" style="3" customWidth="1"/>
-    <col min="88" max="88" width="29.6640625" style="3" customWidth="1"/>
-    <col min="89" max="89" width="19.6640625" style="3" customWidth="1"/>
-    <col min="90" max="90" width="24.44140625" style="3" customWidth="1"/>
-    <col min="91" max="91" width="32.44140625" style="3" customWidth="1"/>
-    <col min="92" max="92" width="36.88671875" style="3" customWidth="1"/>
-    <col min="93" max="93" width="14.5546875" style="3" customWidth="1"/>
-    <col min="94" max="16384" width="9.109375" style="3"/>
+    <col min="65" max="65" width="35.7109375" style="3" customWidth="1"/>
+    <col min="66" max="66" width="39.28515625" style="3" customWidth="1"/>
+    <col min="67" max="67" width="31.42578125" style="3" customWidth="1"/>
+    <col min="68" max="69" width="9.140625" style="3"/>
+    <col min="70" max="70" width="29.42578125" style="3" customWidth="1"/>
+    <col min="71" max="71" width="36.85546875" style="3" customWidth="1"/>
+    <col min="72" max="72" width="26.5703125" style="3" customWidth="1"/>
+    <col min="73" max="73" width="33.28515625" style="3" customWidth="1"/>
+    <col min="74" max="74" width="37.7109375" style="3" customWidth="1"/>
+    <col min="75" max="75" width="35.140625" style="3" customWidth="1"/>
+    <col min="76" max="76" width="36.5703125" style="3" customWidth="1"/>
+    <col min="77" max="77" width="19.85546875" style="3" customWidth="1"/>
+    <col min="78" max="78" width="31.5703125" style="3" customWidth="1"/>
+    <col min="79" max="79" width="19.28515625" style="3" customWidth="1"/>
+    <col min="80" max="80" width="21.85546875" style="3" customWidth="1"/>
+    <col min="81" max="81" width="20.7109375" style="3" customWidth="1"/>
+    <col min="82" max="82" width="38.85546875" style="3" customWidth="1"/>
+    <col min="83" max="83" width="25.42578125" style="3" customWidth="1"/>
+    <col min="84" max="84" width="33.5703125" style="3" customWidth="1"/>
+    <col min="85" max="85" width="35.28515625" style="3" customWidth="1"/>
+    <col min="86" max="86" width="35.7109375" style="3" customWidth="1"/>
+    <col min="87" max="87" width="32.28515625" style="3" customWidth="1"/>
+    <col min="88" max="88" width="29.7109375" style="3" customWidth="1"/>
+    <col min="89" max="89" width="19.7109375" style="3" customWidth="1"/>
+    <col min="90" max="90" width="24.42578125" style="3" customWidth="1"/>
+    <col min="91" max="91" width="32.42578125" style="3" customWidth="1"/>
+    <col min="92" max="92" width="36.85546875" style="3" customWidth="1"/>
+    <col min="93" max="93" width="14.5703125" style="3" customWidth="1"/>
+    <col min="94" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -905,7 +901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -993,7 +989,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1030,7 +1026,7 @@
       <c r="T3" s="6"/>
       <c r="U3" s="11"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1067,7 +1063,7 @@
       <c r="T4" s="6"/>
       <c r="U4" s="11"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1084,22 +1080,22 @@
         <v>38</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="6">
-        <v>4373388</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>67</v>
+      <c r="H5" s="10">
+        <v>4383359</v>
+      </c>
+      <c r="I5" s="10">
+        <v>4383359</v>
+      </c>
+      <c r="J5" s="10">
+        <v>4383359</v>
+      </c>
+      <c r="K5" s="10">
+        <v>4383359</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -1114,9 +1110,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/TGLAutomation/src/test/resources/TestData/TestData.xlsx
+++ b/TGLAutomation/src/test/resources/TestData/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Local_Rep\TGLAdmin\tgl-selenium-automation\TGLAutomation\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationProjects\TGL\TGLLATEST\tgl-selenium-automation\TGLAutomation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B570EDA9-1EA9-41AC-BED8-E0871561DB07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TGLTestData" sheetId="8" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nitin Sharma</author>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -267,7 +268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -714,102 +715,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="40.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="37.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="33.140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="33.42578125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="38.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="40.109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="37.44140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="33.109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="33.44140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="38.109375" style="3" customWidth="1"/>
     <col min="16" max="16" width="34" style="3" customWidth="1"/>
-    <col min="17" max="17" width="34.85546875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="34.88671875" style="3" customWidth="1"/>
     <col min="18" max="18" width="35" style="3" customWidth="1"/>
-    <col min="19" max="19" width="31.5703125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="35.42578125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="25.42578125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="34.5703125" style="3" customWidth="1"/>
-    <col min="23" max="23" width="34.42578125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="41.5703125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="40.140625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="41.7109375" style="3" customWidth="1"/>
-    <col min="27" max="27" width="40.42578125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="43.7109375" style="3" customWidth="1"/>
-    <col min="29" max="29" width="33.5703125" style="3" customWidth="1"/>
-    <col min="30" max="30" width="43.42578125" style="3" customWidth="1"/>
-    <col min="31" max="31" width="35.7109375" style="3" customWidth="1"/>
-    <col min="32" max="32" width="30.7109375" style="3" customWidth="1"/>
-    <col min="33" max="34" width="34.28515625" style="3" customWidth="1"/>
-    <col min="35" max="35" width="41.28515625" style="3" customWidth="1"/>
-    <col min="36" max="36" width="21.5703125" style="3" customWidth="1"/>
-    <col min="37" max="37" width="28.7109375" style="3" customWidth="1"/>
-    <col min="38" max="38" width="25.85546875" style="3" customWidth="1"/>
-    <col min="39" max="39" width="28.28515625" style="3" customWidth="1"/>
-    <col min="40" max="40" width="27.28515625" style="3" customWidth="1"/>
-    <col min="41" max="41" width="23.7109375" style="3" customWidth="1"/>
-    <col min="42" max="42" width="29.85546875" style="3" customWidth="1"/>
-    <col min="43" max="43" width="25.5703125" style="3" customWidth="1"/>
-    <col min="44" max="45" width="29.140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="31.5546875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="35.44140625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="25.44140625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="34.5546875" style="3" customWidth="1"/>
+    <col min="23" max="23" width="34.44140625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="41.5546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="40.109375" style="3" customWidth="1"/>
+    <col min="26" max="26" width="41.6640625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="40.44140625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="43.6640625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="33.5546875" style="3" customWidth="1"/>
+    <col min="30" max="30" width="43.44140625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="35.6640625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="30.6640625" style="3" customWidth="1"/>
+    <col min="33" max="34" width="34.33203125" style="3" customWidth="1"/>
+    <col min="35" max="35" width="41.33203125" style="3" customWidth="1"/>
+    <col min="36" max="36" width="21.5546875" style="3" customWidth="1"/>
+    <col min="37" max="37" width="28.6640625" style="3" customWidth="1"/>
+    <col min="38" max="38" width="25.88671875" style="3" customWidth="1"/>
+    <col min="39" max="39" width="28.33203125" style="3" customWidth="1"/>
+    <col min="40" max="40" width="27.33203125" style="3" customWidth="1"/>
+    <col min="41" max="41" width="23.6640625" style="3" customWidth="1"/>
+    <col min="42" max="42" width="29.88671875" style="3" customWidth="1"/>
+    <col min="43" max="43" width="25.5546875" style="3" customWidth="1"/>
+    <col min="44" max="45" width="29.109375" style="3" customWidth="1"/>
     <col min="46" max="46" width="30" style="3" customWidth="1"/>
-    <col min="47" max="47" width="23.7109375" style="3" customWidth="1"/>
-    <col min="48" max="49" width="26.140625" style="3" customWidth="1"/>
-    <col min="50" max="50" width="26.5703125" style="3" customWidth="1"/>
-    <col min="51" max="51" width="16.85546875" style="3" customWidth="1"/>
-    <col min="52" max="52" width="29.85546875" style="3" customWidth="1"/>
-    <col min="53" max="53" width="37.28515625" style="3" customWidth="1"/>
-    <col min="54" max="61" width="9.140625" style="3"/>
-    <col min="62" max="62" width="36.85546875" style="3" customWidth="1"/>
-    <col min="63" max="63" width="9.140625" style="3"/>
+    <col min="47" max="47" width="23.6640625" style="3" customWidth="1"/>
+    <col min="48" max="49" width="26.109375" style="3" customWidth="1"/>
+    <col min="50" max="50" width="26.5546875" style="3" customWidth="1"/>
+    <col min="51" max="51" width="16.88671875" style="3" customWidth="1"/>
+    <col min="52" max="52" width="29.88671875" style="3" customWidth="1"/>
+    <col min="53" max="53" width="37.33203125" style="3" customWidth="1"/>
+    <col min="54" max="61" width="9.109375" style="3"/>
+    <col min="62" max="62" width="36.88671875" style="3" customWidth="1"/>
+    <col min="63" max="63" width="9.109375" style="3"/>
     <col min="64" max="64" width="25" style="3" customWidth="1"/>
-    <col min="65" max="65" width="35.7109375" style="3" customWidth="1"/>
-    <col min="66" max="66" width="39.28515625" style="3" customWidth="1"/>
-    <col min="67" max="67" width="31.42578125" style="3" customWidth="1"/>
-    <col min="68" max="69" width="9.140625" style="3"/>
-    <col min="70" max="70" width="29.42578125" style="3" customWidth="1"/>
-    <col min="71" max="71" width="36.85546875" style="3" customWidth="1"/>
-    <col min="72" max="72" width="26.5703125" style="3" customWidth="1"/>
-    <col min="73" max="73" width="33.28515625" style="3" customWidth="1"/>
-    <col min="74" max="74" width="37.7109375" style="3" customWidth="1"/>
-    <col min="75" max="75" width="35.140625" style="3" customWidth="1"/>
-    <col min="76" max="76" width="36.5703125" style="3" customWidth="1"/>
-    <col min="77" max="77" width="19.85546875" style="3" customWidth="1"/>
-    <col min="78" max="78" width="31.5703125" style="3" customWidth="1"/>
-    <col min="79" max="79" width="19.28515625" style="3" customWidth="1"/>
-    <col min="80" max="80" width="21.85546875" style="3" customWidth="1"/>
-    <col min="81" max="81" width="20.7109375" style="3" customWidth="1"/>
-    <col min="82" max="82" width="38.85546875" style="3" customWidth="1"/>
-    <col min="83" max="83" width="25.42578125" style="3" customWidth="1"/>
-    <col min="84" max="84" width="33.5703125" style="3" customWidth="1"/>
-    <col min="85" max="85" width="35.28515625" style="3" customWidth="1"/>
-    <col min="86" max="86" width="35.7109375" style="3" customWidth="1"/>
-    <col min="87" max="87" width="32.28515625" style="3" customWidth="1"/>
-    <col min="88" max="88" width="29.7109375" style="3" customWidth="1"/>
-    <col min="89" max="89" width="19.7109375" style="3" customWidth="1"/>
-    <col min="90" max="90" width="24.42578125" style="3" customWidth="1"/>
-    <col min="91" max="91" width="32.42578125" style="3" customWidth="1"/>
-    <col min="92" max="92" width="36.85546875" style="3" customWidth="1"/>
-    <col min="93" max="93" width="14.5703125" style="3" customWidth="1"/>
-    <col min="94" max="16384" width="9.140625" style="3"/>
+    <col min="65" max="65" width="35.6640625" style="3" customWidth="1"/>
+    <col min="66" max="66" width="39.33203125" style="3" customWidth="1"/>
+    <col min="67" max="67" width="31.44140625" style="3" customWidth="1"/>
+    <col min="68" max="69" width="9.109375" style="3"/>
+    <col min="70" max="70" width="29.44140625" style="3" customWidth="1"/>
+    <col min="71" max="71" width="36.88671875" style="3" customWidth="1"/>
+    <col min="72" max="72" width="26.5546875" style="3" customWidth="1"/>
+    <col min="73" max="73" width="33.33203125" style="3" customWidth="1"/>
+    <col min="74" max="74" width="37.6640625" style="3" customWidth="1"/>
+    <col min="75" max="75" width="35.109375" style="3" customWidth="1"/>
+    <col min="76" max="76" width="36.5546875" style="3" customWidth="1"/>
+    <col min="77" max="77" width="19.88671875" style="3" customWidth="1"/>
+    <col min="78" max="78" width="31.5546875" style="3" customWidth="1"/>
+    <col min="79" max="79" width="19.33203125" style="3" customWidth="1"/>
+    <col min="80" max="80" width="21.88671875" style="3" customWidth="1"/>
+    <col min="81" max="81" width="20.6640625" style="3" customWidth="1"/>
+    <col min="82" max="82" width="38.88671875" style="3" customWidth="1"/>
+    <col min="83" max="83" width="25.44140625" style="3" customWidth="1"/>
+    <col min="84" max="84" width="33.5546875" style="3" customWidth="1"/>
+    <col min="85" max="85" width="35.33203125" style="3" customWidth="1"/>
+    <col min="86" max="86" width="35.6640625" style="3" customWidth="1"/>
+    <col min="87" max="87" width="32.33203125" style="3" customWidth="1"/>
+    <col min="88" max="88" width="29.6640625" style="3" customWidth="1"/>
+    <col min="89" max="89" width="19.6640625" style="3" customWidth="1"/>
+    <col min="90" max="90" width="24.44140625" style="3" customWidth="1"/>
+    <col min="91" max="91" width="32.44140625" style="3" customWidth="1"/>
+    <col min="92" max="92" width="36.88671875" style="3" customWidth="1"/>
+    <col min="93" max="93" width="14.5546875" style="3" customWidth="1"/>
+    <col min="94" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -901,7 +902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -989,7 +990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1026,7 +1027,7 @@
       <c r="T3" s="6"/>
       <c r="U3" s="11"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1063,7 +1064,7 @@
       <c r="T4" s="6"/>
       <c r="U4" s="11"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1089,10 +1090,10 @@
         <v>4383359</v>
       </c>
       <c r="I5" s="10">
-        <v>4383359</v>
+        <v>4340055</v>
       </c>
       <c r="J5" s="10">
-        <v>4383359</v>
+        <v>4220035</v>
       </c>
       <c r="K5" s="10">
         <v>4383359</v>
@@ -1110,9 +1111,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/TGLAutomation/src/test/resources/TestData/TestData.xlsx
+++ b/TGLAutomation/src/test/resources/TestData/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationProjects\TGL\TGLLATEST\tgl-selenium-automation\TGLAutomation\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationProjects\TGL\TGLBRANCH\tgl-selenium-automation\TGLAutomation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B570EDA9-1EA9-41AC-BED8-E0871561DB07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC0C8AB-6B74-4542-AAE0-E8DC9ACFABFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,9 +157,6 @@
     <t>Login_Password</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>input4</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>ssharma</t>
   </si>
   <si>
-    <t>Rockstar1</t>
-  </si>
-  <si>
     <t>CMM_003</t>
   </si>
   <si>
@@ -263,6 +257,12 @@
   </si>
   <si>
     <t>amadasun@usc.edu</t>
+  </si>
+  <si>
+    <t>SyiqZDyGjHvML1WKNrXshA==</t>
+  </si>
+  <si>
+    <t>WZrRgv7ejKOtV0KoRQsURQ==</t>
   </si>
 </sst>
 </file>
@@ -719,8 +719,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,43 +827,43 @@
         <v>31</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="L1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>7</v>
@@ -910,55 +910,55 @@
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="L2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="8" t="s">
+      <c r="O2" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Q2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
@@ -995,22 +995,22 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1032,22 +1032,22 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -1069,22 +1069,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="H5" s="10">
         <v>4383359</v>

--- a/TGLAutomation/src/test/resources/TestData/TestData.xlsx
+++ b/TGLAutomation/src/test/resources/TestData/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationProjects\TGL\TGLBRANCH\tgl-selenium-automation\TGLAutomation\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutomationProjects\TGL\TGLBRANCH_LATEST\tgl-selenium-automation\TGLAutomation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC0C8AB-6B74-4542-AAE0-E8DC9ACFABFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AAAE7E-A76A-4D67-A0AA-F7EEC6DB30CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -256,13 +256,13 @@
     <t>Login_PasswordOnline</t>
   </si>
   <si>
-    <t>amadasun@usc.edu</t>
-  </si>
-  <si>
     <t>SyiqZDyGjHvML1WKNrXshA==</t>
   </si>
   <si>
     <t>WZrRgv7ejKOtV0KoRQsURQ==</t>
+  </si>
+  <si>
+    <t>ivanaalardin@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -719,8 +719,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,13 +916,13 @@
         <v>36</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>62</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>43</v>
@@ -1004,13 +1004,13 @@
         <v>36</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1041,15 +1041,17 @@
         <v>36</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="H4" s="6">
+        <v>4258748</v>
+      </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -1078,19 +1080,19 @@
         <v>36</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="H5" s="10">
-        <v>4383359</v>
+        <v>4364341</v>
       </c>
       <c r="I5" s="10">
-        <v>4340055</v>
+        <v>4258748</v>
       </c>
       <c r="J5" s="10">
         <v>4220035</v>
